--- a/excel data/TUESDAY.xlsx
+++ b/excel data/TUESDAY.xlsx
@@ -898,7 +898,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>AS</t>
+          <t>RLN</t>
         </is>
       </c>
       <c r="AW2" t="n">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="M5" t="n">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="U5" t="n">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="AJ5" t="inlineStr">
         <is>
-          <t>TM</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="AK5" t="n">
@@ -1541,7 +1541,7 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="AO5" t="n">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="AC6" t="n">
@@ -1732,7 +1732,7 @@
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="AG6" t="n">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>ZL</t>
         </is>
       </c>
       <c r="AK7" t="n">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>AS/SH</t>
         </is>
       </c>
       <c r="AC8" t="n">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>PHY</t>
+          <t>FD/BK</t>
         </is>
       </c>
       <c r="AG8" t="n">
@@ -2815,7 +2815,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -2833,7 +2833,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="U11" t="n">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="AO11" t="n">
@@ -6016,7 +6016,7 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AC25" t="n">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>GN/CK</t>
+          <t>FGN/CK</t>
         </is>
       </c>
       <c r="AG25" t="n">
